--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3276599.993324123</v>
+        <v>3278360.523626909</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>173.9484321805918</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.3652991436814</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>162.5831330369101</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714241</v>
       </c>
       <c r="S3" t="n">
-        <v>140.2207931214926</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>58.45209498060209</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.0319938887136</v>
+        <v>120.031993888713</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>42.41938106110734</v>
+        <v>145.8423420950488</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -983,19 +983,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.85559031833734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1031,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>123.0547876733642</v>
       </c>
       <c r="V6" t="n">
-        <v>183.652323451407</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.245260737819</v>
+        <v>137.15232087193</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>79.23473427329385</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>311.8430471007736</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.8302881234605</v>
+        <v>11.83028812346049</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>247.0750853483177</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.29180769719213</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155183</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1730436088543</v>
+        <v>43.88187878650112</v>
       </c>
       <c r="T9" t="n">
         <v>192.675990284458</v>
       </c>
       <c r="U9" t="n">
-        <v>111.0576078871649</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4333581046933</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>180.7881255909236</v>
       </c>
       <c r="V10" t="n">
-        <v>196.5232304761743</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>18.70843787977307</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>285.5970594671152</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>47.84205650381972</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>55.5207962406042</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>70.58974991479215</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>47.88058113793238</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4030,10 +4030,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>73.74785292486213</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400.3029543659129</v>
+        <v>224.5974673148098</v>
       </c>
       <c r="C2" t="n">
-        <v>210.8831693494282</v>
+        <v>224.5974673148098</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832528</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832528</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2321815491218</v>
+        <v>28.23218154912179</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123827</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020264</v>
+        <v>734.4611726020258</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652796</v>
+        <v>738.6222485201462</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823977</v>
+        <v>578.2426392372643</v>
       </c>
       <c r="T2" t="n">
-        <v>589.7227393823977</v>
+        <v>578.2426392372643</v>
       </c>
       <c r="U2" t="n">
-        <v>589.7227393823977</v>
+        <v>578.2426392372643</v>
       </c>
       <c r="V2" t="n">
-        <v>589.7227393823977</v>
+        <v>414.0172523312945</v>
       </c>
       <c r="W2" t="n">
-        <v>589.7227393823977</v>
+        <v>414.0172523312945</v>
       </c>
       <c r="X2" t="n">
-        <v>589.7227393823977</v>
+        <v>414.0172523312945</v>
       </c>
       <c r="Y2" t="n">
-        <v>589.7227393823977</v>
+        <v>414.0172523312945</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>440.249846876027</v>
+        <v>323.1739116400123</v>
       </c>
       <c r="C3" t="n">
-        <v>265.7968175949</v>
+        <v>323.1739116400123</v>
       </c>
       <c r="D3" t="n">
-        <v>116.8624079336487</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="E3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024199</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772647</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140239</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546596</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476343</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017061</v>
+        <v>739.5989987017055</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652796</v>
+        <v>722.919292284327</v>
       </c>
       <c r="S3" t="n">
-        <v>608.4651838960951</v>
+        <v>571.6362168389232</v>
       </c>
       <c r="T3" t="n">
-        <v>608.4651838960951</v>
+        <v>382.2164318224387</v>
       </c>
       <c r="U3" t="n">
-        <v>608.4651838960951</v>
+        <v>382.2164318224387</v>
       </c>
       <c r="V3" t="n">
-        <v>608.4651838960951</v>
+        <v>323.1739116400123</v>
       </c>
       <c r="W3" t="n">
-        <v>608.4651838960951</v>
+        <v>323.1739116400123</v>
       </c>
       <c r="X3" t="n">
-        <v>608.4651838960951</v>
+        <v>323.1739116400123</v>
       </c>
       <c r="Y3" t="n">
-        <v>608.4651838960951</v>
+        <v>323.1739116400123</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>628.8579103938517</v>
+        <v>628.8579103938516</v>
       </c>
       <c r="C4" t="n">
-        <v>459.9217274659449</v>
+        <v>459.9217274659447</v>
       </c>
       <c r="D4" t="n">
-        <v>309.8050880536091</v>
+        <v>309.805088053609</v>
       </c>
       <c r="E4" t="n">
-        <v>161.891994471216</v>
+        <v>161.8919944712159</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>187.8896250884406</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830973</v>
+        <v>373.5399563830971</v>
       </c>
       <c r="N4" t="n">
-        <v>559.190287677754</v>
+        <v>559.1902876777536</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143042</v>
+        <v>721.9284911143037</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="T4" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="U4" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="V4" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="W4" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="X4" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="Y4" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652789</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>395.2371628325889</v>
+        <v>556.9527258178796</v>
       </c>
       <c r="C5" t="n">
-        <v>395.2371628325889</v>
+        <v>187.9902088774679</v>
       </c>
       <c r="D5" t="n">
-        <v>395.2371628325889</v>
+        <v>187.9902088774679</v>
       </c>
       <c r="E5" t="n">
-        <v>395.2371628325889</v>
+        <v>187.9902088774679</v>
       </c>
       <c r="F5" t="n">
-        <v>388.2916620833855</v>
+        <v>181.0447081282644</v>
       </c>
       <c r="G5" t="n">
-        <v>345.4438024257013</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H5" t="n">
         <v>33.72921106255854</v>
@@ -4594,25 +4594,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S5" t="n">
-        <v>1544.727438003256</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T5" t="n">
-        <v>1332.709567064687</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="U5" t="n">
-        <v>1079.068705446274</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="V5" t="n">
-        <v>748.0058181027031</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="W5" t="n">
-        <v>395.2371628325889</v>
+        <v>1333.691897857813</v>
       </c>
       <c r="X5" t="n">
-        <v>395.2371628325889</v>
+        <v>1333.691897857813</v>
       </c>
       <c r="Y5" t="n">
-        <v>395.2371628325889</v>
+        <v>943.5525658820013</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>662.8886629835073</v>
+        <v>488.9461868507977</v>
       </c>
       <c r="C6" t="n">
-        <v>488.4356337023803</v>
+        <v>314.4931575696708</v>
       </c>
       <c r="D6" t="n">
-        <v>339.501224041129</v>
+        <v>165.5587479084195</v>
       </c>
       <c r="E6" t="n">
-        <v>180.2637690356736</v>
+        <v>165.5587479084195</v>
       </c>
       <c r="F6" t="n">
-        <v>33.72921106255854</v>
+        <v>165.5587479084195</v>
       </c>
       <c r="G6" t="n">
-        <v>33.72921106255854</v>
+        <v>165.5587479084195</v>
       </c>
       <c r="H6" t="n">
-        <v>33.72921106255854</v>
+        <v>67.92677704067707</v>
       </c>
       <c r="I6" t="n">
         <v>33.72921106255854</v>
@@ -4649,22 +4649,22 @@
         <v>59.04473788968937</v>
       </c>
       <c r="K6" t="n">
-        <v>442.288414802421</v>
+        <v>243.2077001209171</v>
       </c>
       <c r="L6" t="n">
-        <v>651.8792880552517</v>
+        <v>452.7985733737478</v>
       </c>
       <c r="M6" t="n">
-        <v>915.8188195507389</v>
+        <v>716.738104869235</v>
       </c>
       <c r="N6" t="n">
-        <v>1201.152689984072</v>
+        <v>1002.071975302568</v>
       </c>
       <c r="O6" t="n">
-        <v>1439.95764173553</v>
+        <v>1240.876927054026</v>
       </c>
       <c r="P6" t="n">
-        <v>1612.28660268924</v>
+        <v>1413.205888007736</v>
       </c>
       <c r="Q6" t="n">
         <v>1686.460553127927</v>
@@ -4679,19 +4679,19 @@
         <v>1686.460553127927</v>
       </c>
       <c r="U6" t="n">
-        <v>1686.460553127927</v>
+        <v>1562.162787801297</v>
       </c>
       <c r="V6" t="n">
-        <v>1500.953155702264</v>
+        <v>1327.010679569554</v>
       </c>
       <c r="W6" t="n">
-        <v>1246.715798974062</v>
+        <v>1072.773322841352</v>
       </c>
       <c r="X6" t="n">
-        <v>1038.864298768529</v>
+        <v>864.9218226358196</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.1040000035753</v>
+        <v>657.1615238708657</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.6951269851943</v>
+        <v>497.4684350707689</v>
       </c>
       <c r="C7" t="n">
-        <v>331.7589440572874</v>
+        <v>328.532252142862</v>
       </c>
       <c r="D7" t="n">
-        <v>181.6423046449517</v>
+        <v>328.532252142862</v>
       </c>
       <c r="E7" t="n">
-        <v>33.72921106255854</v>
+        <v>180.6191585604689</v>
       </c>
       <c r="F7" t="n">
         <v>33.72921106255854</v>
@@ -4752,25 +4752,25 @@
         <v>1293.13166510086</v>
       </c>
       <c r="S7" t="n">
-        <v>1090.659418261162</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="T7" t="n">
-        <v>1090.659418261162</v>
+        <v>1293.13166510086</v>
       </c>
       <c r="U7" t="n">
-        <v>801.5227912532637</v>
+        <v>1154.593967250426</v>
       </c>
       <c r="V7" t="n">
-        <v>801.5227912532637</v>
+        <v>899.9094790445388</v>
       </c>
       <c r="W7" t="n">
-        <v>721.4877061287244</v>
+        <v>899.9094790445388</v>
       </c>
       <c r="X7" t="n">
-        <v>721.4877061287244</v>
+        <v>899.9094790445388</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.6951269851943</v>
+        <v>679.1168999010087</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>818.0016027987712</v>
+        <v>736.5095087363341</v>
       </c>
       <c r="C8" t="n">
-        <v>449.0390858583594</v>
+        <v>736.5095087363341</v>
       </c>
       <c r="D8" t="n">
-        <v>449.0390858583594</v>
+        <v>378.2438101295836</v>
       </c>
       <c r="E8" t="n">
-        <v>63.25083326011519</v>
+        <v>63.25083326011527</v>
       </c>
       <c r="F8" t="n">
-        <v>56.30533251091171</v>
+        <v>56.3053325109118</v>
       </c>
       <c r="G8" t="n">
-        <v>44.35554652761827</v>
+        <v>44.35554652761837</v>
       </c>
       <c r="H8" t="n">
-        <v>44.35554652761827</v>
+        <v>44.35554652761837</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761827</v>
+        <v>44.35554652761837</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8927045872706</v>
+        <v>156.8927045872711</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505158996</v>
+        <v>376.2952505159007</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985276</v>
+        <v>685.3852714985292</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556943</v>
+        <v>1060.976912556946</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415488</v>
+        <v>1447.259827415491</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975109</v>
+        <v>1798.680568975112</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.109040631087</v>
+        <v>2064.109040631091</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208125</v>
+        <v>2215.26202220813</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380914</v>
+        <v>2217.777326380918</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.777326380914</v>
+        <v>2217.777326380918</v>
       </c>
       <c r="T8" t="n">
-        <v>2217.777326380914</v>
+        <v>2217.777326380918</v>
       </c>
       <c r="U8" t="n">
-        <v>2217.777326380914</v>
+        <v>2217.777326380918</v>
       </c>
       <c r="V8" t="n">
-        <v>1968.206533099785</v>
+        <v>1886.714439037347</v>
       </c>
       <c r="W8" t="n">
-        <v>1968.206533099785</v>
+        <v>1886.714439037347</v>
       </c>
       <c r="X8" t="n">
-        <v>1594.740774838705</v>
+        <v>1513.248680776268</v>
       </c>
       <c r="Y8" t="n">
-        <v>1204.601442862893</v>
+        <v>1123.109348800456</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>699.2004812077104</v>
+        <v>905.6133829345007</v>
       </c>
       <c r="C9" t="n">
-        <v>524.7474519265834</v>
+        <v>731.1603536533737</v>
       </c>
       <c r="D9" t="n">
-        <v>375.8130422653321</v>
+        <v>582.2259439921224</v>
       </c>
       <c r="E9" t="n">
-        <v>216.5755872598766</v>
+        <v>422.988488986667</v>
       </c>
       <c r="F9" t="n">
-        <v>70.04102928676154</v>
+        <v>276.4539310135519</v>
       </c>
       <c r="G9" t="n">
-        <v>70.04102928676154</v>
+        <v>139.5997967268023</v>
       </c>
       <c r="H9" t="n">
-        <v>70.04102928676154</v>
+        <v>44.35554652761837</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761827</v>
+        <v>44.35554652761837</v>
       </c>
       <c r="J9" t="n">
-        <v>92.56405995424072</v>
+        <v>92.56405995424103</v>
       </c>
       <c r="K9" t="n">
-        <v>355.341108898716</v>
+        <v>514.9354973067614</v>
       </c>
       <c r="L9" t="n">
-        <v>617.5440847283924</v>
+        <v>777.1384731364382</v>
       </c>
       <c r="M9" t="n">
-        <v>942.8794583784978</v>
+        <v>1102.473846786544</v>
       </c>
       <c r="N9" t="n">
-        <v>1291.234136219251</v>
+        <v>1450.828524627299</v>
       </c>
       <c r="O9" t="n">
-        <v>1587.690814634403</v>
+        <v>1747.285203042451</v>
       </c>
       <c r="P9" t="n">
-        <v>2121.568509855269</v>
+        <v>2121.568509855274</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.777326380914</v>
+        <v>2217.777326380918</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380914</v>
+        <v>2217.777326380918</v>
       </c>
       <c r="S9" t="n">
-        <v>2079.21869647298</v>
+        <v>2173.452196293543</v>
       </c>
       <c r="T9" t="n">
-        <v>1884.596484064436</v>
+        <v>1978.829983885</v>
       </c>
       <c r="U9" t="n">
-        <v>1772.417082158209</v>
+        <v>1978.829983885</v>
       </c>
       <c r="V9" t="n">
-        <v>1537.264973926467</v>
+        <v>1743.677875653257</v>
       </c>
       <c r="W9" t="n">
-        <v>1283.027617198265</v>
+        <v>1489.440518925055</v>
       </c>
       <c r="X9" t="n">
-        <v>1075.176116992732</v>
+        <v>1281.589018719523</v>
       </c>
       <c r="Y9" t="n">
-        <v>867.4158182277783</v>
+        <v>1073.828719954569</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>676.2092736718824</v>
+        <v>658.2114099481645</v>
       </c>
       <c r="C10" t="n">
-        <v>507.2730907439756</v>
+        <v>489.2752270202576</v>
       </c>
       <c r="D10" t="n">
-        <v>507.2730907439756</v>
+        <v>339.1585876079218</v>
       </c>
       <c r="E10" t="n">
-        <v>359.3599971615824</v>
+        <v>191.2454940255287</v>
       </c>
       <c r="F10" t="n">
-        <v>212.4700496636721</v>
+        <v>44.35554652761837</v>
       </c>
       <c r="G10" t="n">
-        <v>44.35554652761827</v>
+        <v>44.35554652761837</v>
       </c>
       <c r="H10" t="n">
-        <v>44.35554652761827</v>
+        <v>44.35554652761837</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761827</v>
+        <v>44.35554652761837</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262692021</v>
+        <v>60.95254262692043</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274029</v>
+        <v>218.0633423274033</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918434</v>
+        <v>474.6375091918442</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921708</v>
+        <v>755.5481168921717</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.213914629318</v>
+        <v>1035.213914629319</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.51424854613</v>
+        <v>1277.514248546131</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.323360659239</v>
+        <v>1461.323360659241</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155967</v>
+        <v>1505.148182155969</v>
       </c>
       <c r="R10" t="n">
-        <v>1505.148182155967</v>
+        <v>1505.148182155969</v>
       </c>
       <c r="S10" t="n">
-        <v>1505.148182155967</v>
+        <v>1505.148182155969</v>
       </c>
       <c r="T10" t="n">
-        <v>1505.148182155967</v>
+        <v>1505.148182155969</v>
       </c>
       <c r="U10" t="n">
-        <v>1505.148182155967</v>
+        <v>1322.533913882309</v>
       </c>
       <c r="V10" t="n">
-        <v>1306.63986854367</v>
+        <v>1067.849425676422</v>
       </c>
       <c r="W10" t="n">
-        <v>1306.63986854367</v>
+        <v>1067.849425676422</v>
       </c>
       <c r="X10" t="n">
-        <v>1078.650317645652</v>
+        <v>839.8598747784042</v>
       </c>
       <c r="Y10" t="n">
-        <v>857.8577385021222</v>
+        <v>839.8598747784042</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5272,37 +5272,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
@@ -5655,22 +5655,22 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,28 +5764,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.979202260897</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1434.29471405501</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6703,16 +6703,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2125.759767795858</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1836.684541140056</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7168,25 +7168,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7438,25 +7438,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>580.8993044876688</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>430.7826650753331</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>430.7826650753331</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>283.8927175774227</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7648,19 +7648,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7669,7 +7669,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>878.3568999154069</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>709.4207169875</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>559.3040775751642</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265844</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402857</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457084</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711115</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777609</v>
+        <v>46.56605103777592</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>63.37360602116058</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.985656744431111</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>103.2587840751596</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>157.2563157025189</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688315</v>
+        <v>30.32522655688301</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0.5874149221289713</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.85445046951749</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>146.8157004124961</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>117.6435571543365</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,7 +25836,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>72.68610972170704</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>699493.3769667762</v>
+        <v>699493.3769667763</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>699493.3769667763</v>
+        <v>699493.3769667762</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778551</v>
+      </c>
+      <c r="C2" t="n">
+        <v>738937.5928778552</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778548</v>
-      </c>
-      <c r="C2" t="n">
-        <v>738937.5928778549</v>
-      </c>
-      <c r="D2" t="n">
-        <v>738937.5928778549</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
+        <v>726431.9397210049</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="H2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="J2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="N2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="O2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210052</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210054</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208452</v>
       </c>
       <c r="C3" t="n">
-        <v>259123.8056778329</v>
+        <v>259123.8056778332</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296902</v>
+        <v>138712.7919296914</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745752</v>
+        <v>589678.7921745742</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.9447285446</v>
+        <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153567</v>
+        <v>60247.15959153571</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484289</v>
+        <v>33617.8733648432</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.8510167274</v>
+        <v>154073.8510167272</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278169.1766632064</v>
+        <v>278169.1766632065</v>
       </c>
       <c r="C4" t="n">
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.524429619</v>
+        <v>170385.5244296186</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
@@ -26450,13 +26450,13 @@
         <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969306</v>
+        <v>86168.04029969315</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-187574.2867178106</v>
+        <v>-187574.2867178102</v>
       </c>
       <c r="C6" t="n">
         <v>194948.4895052724</v>
       </c>
       <c r="D6" t="n">
-        <v>343671.2362188526</v>
+        <v>343671.2362188516</v>
       </c>
       <c r="E6" t="n">
-        <v>21066.48639131103</v>
+        <v>21379.12772023318</v>
       </c>
       <c r="F6" t="n">
-        <v>610745.2785658863</v>
+        <v>611057.919894807</v>
       </c>
       <c r="G6" t="n">
-        <v>610745.2785658858</v>
+        <v>611057.9198948077</v>
       </c>
       <c r="H6" t="n">
-        <v>610745.2785658863</v>
+        <v>611057.9198948075</v>
       </c>
       <c r="I6" t="n">
-        <v>610745.2785658863</v>
+        <v>611057.9198948075</v>
       </c>
       <c r="J6" t="n">
-        <v>561680.333837342</v>
+        <v>561992.9751662629</v>
       </c>
       <c r="K6" t="n">
-        <v>550498.1189743504</v>
+        <v>550810.7603032718</v>
       </c>
       <c r="L6" t="n">
-        <v>577127.4052010432</v>
+        <v>577440.0465299644</v>
       </c>
       <c r="M6" t="n">
-        <v>456671.4275491589</v>
+        <v>456984.0688780802</v>
       </c>
       <c r="N6" t="n">
-        <v>610745.278565886</v>
+        <v>611057.9198948075</v>
       </c>
       <c r="O6" t="n">
-        <v>610745.2785658864</v>
+        <v>611057.9198948076</v>
       </c>
       <c r="P6" t="n">
-        <v>610745.2785658863</v>
+        <v>611057.9198948074</v>
       </c>
     </row>
   </sheetData>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129043</v>
       </c>
       <c r="C3" t="n">
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.771786179045</v>
+        <v>863.771786179046</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C4" t="n">
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952284</v>
+        <v>554.4443315952295</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129043</v>
       </c>
       <c r="C3" t="n">
-        <v>201.5110155847054</v>
+        <v>201.5110155847057</v>
       </c>
       <c r="D3" t="n">
-        <v>113.790829681435</v>
+        <v>113.790829681436</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626288</v>
+        <v>504.203714162628</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C4" t="n">
-        <v>234.0895511156619</v>
+        <v>234.0895511156621</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8291933132466</v>
+        <v>132.8291933132478</v>
       </c>
       <c r="E4" t="n">
-        <v>618.26395650442</v>
+        <v>618.2639565044191</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156619</v>
+        <v>234.0895511156621</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132466</v>
+        <v>132.8291933132478</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044198</v>
+        <v>618.2639565044191</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156619</v>
+        <v>234.0895511156621</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132466</v>
+        <v>132.8291933132478</v>
       </c>
       <c r="M4" t="n">
-        <v>618.26395650442</v>
+        <v>618.2639565044191</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971607</v>
+        <v>195.2082544971609</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>180.7346094400911</v>
+        <v>167.1574544543632</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27399,7 +27399,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>165.1691254332248</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,10 +27475,10 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>48.77881175550659</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>9.549451569457034</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681526</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>174.3484921688232</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.79998629322374</v>
+        <v>59.79998629322431</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>23.43375830553087</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>3.343082173845829</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>369.8683576339368</v>
+        <v>266.4453965999953</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
         <v>94.24014755885166</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27703,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
-        <v>96.65565115906497</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833734</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27751,10 +27751,10 @@
         <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8352527003384</v>
+        <v>102.7804650269742</v>
       </c>
       <c r="V6" t="n">
-        <v>49.1482636980183</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.6385546828073</v>
@@ -27824,19 +27824,19 @@
         <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
         <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>149.092939865889</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>207.2882640632972</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>70.08732297148816</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>303.9125797832801</v>
       </c>
       <c r="I8" t="n">
-        <v>76.6042843978727</v>
+        <v>76.60428439787253</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>251.0678569565025</v>
       </c>
       <c r="V8" t="n">
-        <v>80.67717312181722</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4855929438821</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29180769719216</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.42862793155176</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>93.29116482235312</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>114.7615423372751</v>
+        <v>225.8191502244401</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
         <v>148.3785035421427</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305866</v>
+        <v>107.2570757305865</v>
       </c>
       <c r="S10" t="n">
         <v>196.8715076418046</v>
@@ -28067,10 +28067,10 @@
         <v>221.290298616738</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340681971946</v>
+        <v>105.445942606271</v>
       </c>
       <c r="V10" t="n">
-        <v>55.61441284765365</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043116</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622678</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244293</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924575</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31123,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590849</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292672</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628871</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550072</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820367</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390159</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445815</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620012</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.9254218111419</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784856</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647908</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181393</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.0539478630406136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.47244939167455</v>
+        <v>3.472449391674554</v>
       </c>
       <c r="H8" t="n">
-        <v>35.562222332487</v>
+        <v>35.56222233248704</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8716051725332</v>
+        <v>133.8716051725334</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566381</v>
+        <v>294.7198015566385</v>
       </c>
       <c r="K8" t="n">
-        <v>441.7085843062219</v>
+        <v>441.7085843062224</v>
       </c>
       <c r="L8" t="n">
-        <v>547.978557376682</v>
+        <v>547.9785573766827</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458742</v>
+        <v>609.731729245875</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799696</v>
+        <v>619.5978260799703</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415058</v>
+        <v>585.0686574415065</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845402</v>
+        <v>499.3425630845409</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451953</v>
+        <v>374.9854692451958</v>
       </c>
       <c r="R8" t="n">
-        <v>218.1262490997767</v>
+        <v>218.1262490997769</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278388</v>
+        <v>79.12844051278398</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205535</v>
+        <v>15.20064721205537</v>
       </c>
       <c r="U8" t="n">
-        <v>0.277795951333964</v>
+        <v>0.2777959513339643</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328512</v>
+        <v>1.857924219328514</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930431</v>
+        <v>17.94363653930434</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986325</v>
+        <v>63.96800491986332</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743661</v>
+        <v>175.5330947743664</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693764</v>
+        <v>300.0140174693768</v>
       </c>
       <c r="L9" t="n">
-        <v>403.405870516921</v>
+        <v>403.4058705169215</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675794</v>
+        <v>470.75562346758</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436905</v>
+        <v>483.215124043691</v>
       </c>
       <c r="O9" t="n">
-        <v>442.0474347627797</v>
+        <v>442.0474347627803</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873893</v>
+        <v>354.7820379873897</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1623968391974</v>
+        <v>237.1623968391977</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3542774070808</v>
+        <v>115.3542774070809</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498352</v>
+        <v>34.51012749498356</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363604</v>
+        <v>7.488738410363613</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347706</v>
+        <v>0.1222318565347707</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765491</v>
+        <v>1.557621253765493</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84866896529683</v>
+        <v>13.84866896529685</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869314</v>
+        <v>46.84191915869319</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1238226412202</v>
+        <v>110.1238226412203</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9672693011179</v>
+        <v>180.9672693011181</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5757998552804</v>
+        <v>231.5757998552806</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1642116243487</v>
+        <v>244.164211624349</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3585324057684</v>
+        <v>238.3585324057687</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231442</v>
+        <v>220.1626841231444</v>
       </c>
       <c r="P10" t="n">
-        <v>188.387210546328</v>
+        <v>188.3872105463282</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4295397130358</v>
+        <v>130.429539713036</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658286</v>
+        <v>70.03631564658295</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14509039516768</v>
+        <v>27.14509039516771</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543459</v>
+        <v>6.655290811543467</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629959</v>
+        <v>0.08496115929629969</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904295</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538867967</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788321</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915973</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065964</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781461</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755145</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855685</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.6094444076499</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068223</v>
+        <v>28.45844197068201</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>25.57123921932407</v>
       </c>
       <c r="K6" t="n">
-        <v>387.1148251643754</v>
+        <v>186.0231941729573</v>
       </c>
       <c r="L6" t="n">
         <v>211.707952780637</v>
@@ -35035,7 +35035,7 @@
         <v>174.0696575289995</v>
       </c>
       <c r="Q6" t="n">
-        <v>74.92318226130061</v>
+        <v>276.0148132527186</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6738970299518</v>
+        <v>113.6738970299522</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612413</v>
+        <v>221.6187332612419</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066948</v>
+        <v>312.2121424066955</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960186015</v>
+        <v>379.3854960186023</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833787</v>
+        <v>390.1847624833794</v>
       </c>
       <c r="O8" t="n">
-        <v>354.9704460198191</v>
+        <v>354.9704460198197</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292707</v>
+        <v>268.1095673292713</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707458</v>
+        <v>152.6797793707463</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285644534</v>
+        <v>2.54071128564479</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.69546810769944</v>
+        <v>48.69546810769967</v>
       </c>
       <c r="K9" t="n">
-        <v>265.431362570177</v>
+        <v>426.6378155075964</v>
       </c>
       <c r="L9" t="n">
-        <v>264.8514907370468</v>
+        <v>264.8514907370473</v>
       </c>
       <c r="M9" t="n">
-        <v>328.6215895455611</v>
+        <v>328.6215895455617</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603572</v>
+        <v>351.8734119603578</v>
       </c>
       <c r="O9" t="n">
-        <v>299.4511903183353</v>
+        <v>299.4511903183358</v>
       </c>
       <c r="P9" t="n">
-        <v>539.2703992129962</v>
+        <v>378.0639462755783</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.18062275317592</v>
+        <v>97.18062275317621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.76464252454741</v>
+        <v>16.76464252454754</v>
       </c>
       <c r="K10" t="n">
-        <v>158.697777475235</v>
+        <v>158.6977774752353</v>
       </c>
       <c r="L10" t="n">
-        <v>259.1658251155965</v>
+        <v>259.1658251155968</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861893</v>
+        <v>283.7480885861895</v>
       </c>
       <c r="N10" t="n">
-        <v>282.490704784997</v>
+        <v>282.4907047849973</v>
       </c>
       <c r="O10" t="n">
-        <v>244.7478120371838</v>
+        <v>244.7478120371841</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112215</v>
+        <v>185.6657698112217</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134139</v>
+        <v>44.26749646134157</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684112</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
